--- a/Metric Modifications/OH_PCB_shopping_Higgins_2023-03-23.xlsx
+++ b/Metric Modifications/OH_PCB_shopping_Higgins_2023-03-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A820B-FE0F-6A4B-8580-5B421AD620FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95195EE0-5A18-C04B-BAE4-782AA4F5C7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{F3E80479-724E-DB47-B2D1-9A455ADBA10D}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -871,7 +870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,12 +892,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -956,19 +949,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1278,7 @@
   <dimension ref="C1:BJ104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,166 +1591,166 @@
       <c r="H3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AE3" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AF3" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AH3" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AK3" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AL3" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AM3" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="AQ3" s="17" t="s">
+      <c r="AQ3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="AR3" s="17" t="s">
+      <c r="AR3" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AS3" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AT3" s="17" t="s">
+      <c r="AT3" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="AU3" s="17" t="s">
+      <c r="AU3" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AV3" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="AW3" s="17" t="s">
+      <c r="AW3" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="AX3" s="17" t="s">
+      <c r="AX3" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="AY3" s="17" t="s">
+      <c r="AY3" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="AZ3" s="17" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="BA3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="BB3" s="17" t="s">
+      <c r="BB3" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BC3" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BD3" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="BE3" s="17" t="s">
+      <c r="BE3" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="BF3" s="17" t="s">
+      <c r="BF3" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="BG3" s="17" t="s">
+      <c r="BG3" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="BH3" s="17" t="s">
+      <c r="BH3" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="BI3" s="17" t="s">
+      <c r="BI3" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="BJ3" s="17" t="s">
+      <c r="BJ3" s="16" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1966,20 +1956,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:62" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="3:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -2529,27 +2519,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:62" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="11" t="s">
+    <row r="40" spans="3:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="M40" s="11">
-        <v>2</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS40" s="11">
+      <c r="G40" s="11"/>
+      <c r="M40" s="10">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2641,55 +2631,55 @@
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="15">
         <v>10</v>
       </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16">
-        <v>1</v>
-      </c>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16">
-        <v>1</v>
-      </c>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="16">
+      <c r="N45" s="15"/>
+      <c r="O45" s="15">
+        <v>1</v>
+      </c>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15">
+        <v>1</v>
+      </c>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="15">
         <v>5</v>
       </c>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="16"/>
-      <c r="AK45" s="16"/>
-      <c r="AL45" s="16">
-        <v>1</v>
-      </c>
-      <c r="AM45" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN45" s="16">
-        <v>2</v>
-      </c>
-      <c r="AO45" s="16"/>
-      <c r="AP45" s="16"/>
-      <c r="AQ45" s="16"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="15">
+        <v>2</v>
+      </c>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
     </row>
     <row r="46" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
@@ -2720,41 +2710,41 @@
       <c r="L46">
         <v>2</v>
       </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16">
+      <c r="M46" s="15"/>
+      <c r="N46" s="15">
         <v>13</v>
       </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16"/>
-      <c r="AN46" s="16"/>
-      <c r="AO46" s="16"/>
-      <c r="AP46" s="16"/>
-      <c r="AQ46" s="16"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
       <c r="BE46">
         <v>3</v>
       </c>
@@ -3029,36 +3019,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="3:56" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="13" t="s">
+    <row r="56" spans="3:56" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="R56" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD56" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ56" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT56" s="13">
+      <c r="G56" s="13"/>
+      <c r="R56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ56" s="12">
+        <v>2</v>
+      </c>
+      <c r="AQ56" s="12">
+        <v>2</v>
+      </c>
+      <c r="AT56" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3164,20 +3154,20 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="3:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11" t="s">
+    <row r="63" spans="3:56" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3402,20 +3392,20 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="3:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="13" t="s">
+    <row r="77" spans="3:45" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="12" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3692,20 +3682,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:55" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="11" t="s">
+    <row r="89" spans="3:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="10" t="s">
         <v>189</v>
       </c>
     </row>
